--- a/source.xlsx
+++ b/source.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyee\Documents\Projects\pyinterp-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyee\Documents\Projects\nsmtables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BA589D-21EF-4B87-B1AD-9CEB6CC534A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12069DB3-803E-464C-8411-DA8AB62AA6DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10935" yWindow="1980" windowWidth="11760" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G4" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>National Center for Education Statistics (NCES)</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>–</t>
-  </si>
-  <si>
-    <t>†</t>
   </si>
   <si>
     <t>– Not available.</t>
@@ -810,8 +804,8 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -890,7 +884,7 @@
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -962,25 +956,13 @@
       <c r="B9" s="42">
         <v>2005</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>11</v>
-      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="45"/>
-      <c r="G9" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>11</v>
-      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="47"/>
       <c r="K9" s="1"/>
     </row>
@@ -989,25 +971,13 @@
       <c r="B10" s="48">
         <v>2007</v>
       </c>
-      <c r="C10" s="49">
-        <v>214</v>
-      </c>
-      <c r="D10" s="50">
-        <v>1</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>10</v>
-      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="51"/>
-      <c r="G10" s="52">
-        <v>239</v>
-      </c>
-      <c r="H10" s="50">
-        <v>1</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>10</v>
-      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1015,25 +985,13 @@
       <c r="B11" s="48">
         <v>2009</v>
       </c>
-      <c r="C11" s="54">
-        <v>210.10243631403301</v>
-      </c>
-      <c r="D11" s="55">
-        <v>0.84525400060946199</v>
-      </c>
-      <c r="E11" s="55">
-        <v>0.27153254079177203</v>
-      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="56"/>
-      <c r="G11" s="57">
-        <v>234.33849349465601</v>
-      </c>
-      <c r="H11" s="55">
-        <v>0.59808141873952203</v>
-      </c>
-      <c r="I11" s="55">
-        <v>0.30745516043395099</v>
-      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1041,25 +999,13 @@
       <c r="B12" s="48">
         <v>2011</v>
       </c>
-      <c r="C12" s="54">
-        <v>209.79634426000001</v>
-      </c>
-      <c r="D12" s="55">
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="55">
-        <v>0.3</v>
-      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="56"/>
-      <c r="G12" s="57">
-        <v>237.14447361000001</v>
-      </c>
-      <c r="H12" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="55">
-        <v>0.3</v>
-      </c>
+      <c r="G12" s="57"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1067,25 +1013,13 @@
       <c r="B13" s="48">
         <v>2013</v>
       </c>
-      <c r="C13" s="49">
-        <v>210.59802020000001</v>
-      </c>
-      <c r="D13" s="50">
-        <v>0.6</v>
-      </c>
-      <c r="E13" s="50">
-        <v>0.2</v>
-      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="53"/>
-      <c r="G13" s="49">
-        <v>234.96441211000001</v>
-      </c>
-      <c r="H13" s="50">
-        <v>0.7</v>
-      </c>
-      <c r="I13" s="50">
-        <v>0.3</v>
-      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1093,25 +1027,13 @@
       <c r="B14" s="48">
         <v>2015</v>
       </c>
-      <c r="C14" s="49">
-        <v>232.619714836376</v>
-      </c>
-      <c r="D14" s="50">
-        <v>1.6651836090115799</v>
-      </c>
-      <c r="E14" s="50">
-        <v>0.19076813846306001</v>
-      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="53"/>
-      <c r="G14" s="49">
-        <v>247.37126771148999</v>
-      </c>
-      <c r="H14" s="50">
-        <v>0.75549798111333899</v>
-      </c>
-      <c r="I14" s="50">
-        <v>0.356649805983623</v>
-      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1119,31 +1041,19 @@
       <c r="B15" s="59">
         <v>2017</v>
       </c>
-      <c r="C15" s="60">
-        <v>232.22587511762401</v>
-      </c>
-      <c r="D15" s="61">
-        <v>1.0095418058619701</v>
-      </c>
-      <c r="E15" s="61">
-        <v>0.22067313318033099</v>
-      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
       <c r="F15" s="62"/>
-      <c r="G15" s="63">
-        <v>244.382718459649</v>
-      </c>
-      <c r="H15" s="61">
-        <v>0.86718198061785201</v>
-      </c>
-      <c r="I15" s="61">
-        <v>0.24813780427055901</v>
-      </c>
+      <c r="G15" s="63"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
       <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="76"/>
       <c r="D16" s="76"/>
@@ -1157,7 +1067,7 @@
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
@@ -1172,7 +1082,7 @@
     <row r="18" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
@@ -1187,7 +1097,7 @@
     <row r="19" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="71"/>
@@ -1230,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBB2959-0CC8-444B-99AE-C2090D86C47F}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1220,7 @@
     <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -1384,25 +1294,13 @@
       <c r="B9" s="42">
         <v>2005</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>11</v>
-      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="45"/>
-      <c r="G9" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>11</v>
-      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="47"/>
       <c r="K9" s="27"/>
     </row>
@@ -1411,25 +1309,13 @@
       <c r="B10" s="48">
         <v>2007</v>
       </c>
-      <c r="C10" s="49">
-        <v>263</v>
-      </c>
-      <c r="D10" s="50">
-        <v>1.4</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>10</v>
-      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="51"/>
-      <c r="G10" s="52">
-        <v>284</v>
-      </c>
-      <c r="H10" s="50">
-        <v>0.9</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>10</v>
-      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="53"/>
       <c r="K10" s="28"/>
     </row>
@@ -1438,25 +1324,13 @@
       <c r="B11" s="48">
         <v>2009</v>
       </c>
-      <c r="C11" s="54">
-        <v>253.50277237510099</v>
-      </c>
-      <c r="D11" s="55">
-        <v>0.63823356605630099</v>
-      </c>
-      <c r="E11" s="55">
-        <v>0.2665152040405</v>
-      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="56"/>
-      <c r="G11" s="57">
-        <v>279.037177651842</v>
-      </c>
-      <c r="H11" s="55">
-        <v>0.72886594100486701</v>
-      </c>
-      <c r="I11" s="55">
-        <v>0.101313337132817</v>
-      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="58"/>
       <c r="K11" s="28"/>
     </row>
@@ -1465,25 +1339,13 @@
       <c r="B12" s="48">
         <v>2011</v>
       </c>
-      <c r="C12" s="54">
-        <v>248.43119139999999</v>
-      </c>
-      <c r="D12" s="55">
-        <v>0.6</v>
-      </c>
-      <c r="E12" s="55">
-        <v>0.2</v>
-      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="56"/>
-      <c r="G12" s="57">
-        <v>280.67468777117199</v>
-      </c>
-      <c r="H12" s="55">
-        <v>0.50012977901147604</v>
-      </c>
-      <c r="I12" s="55">
-        <v>8.3844414440367498E-2</v>
-      </c>
+      <c r="G12" s="57"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="58"/>
       <c r="K12" s="28"/>
     </row>
@@ -1492,25 +1354,13 @@
       <c r="B13" s="48">
         <v>2013</v>
       </c>
-      <c r="C13" s="49">
-        <v>245.0215776</v>
-      </c>
-      <c r="D13" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="50">
-        <v>0.2</v>
-      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="53"/>
-      <c r="G13" s="49">
-        <v>280.13126232305802</v>
-      </c>
-      <c r="H13" s="50">
-        <v>0.57990985687602903</v>
-      </c>
-      <c r="I13" s="50">
-        <v>9.8844270441892201E-2</v>
-      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="53"/>
       <c r="K13" s="28"/>
     </row>
@@ -1519,25 +1369,13 @@
       <c r="B14" s="48">
         <v>2015</v>
       </c>
-      <c r="C14" s="49">
-        <v>266.44060929390798</v>
-      </c>
-      <c r="D14" s="50">
-        <v>0.77538887845818405</v>
-      </c>
-      <c r="E14" s="50">
-        <v>0.227412767128536</v>
-      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="53"/>
-      <c r="G14" s="49">
-        <v>293.792338132667</v>
-      </c>
-      <c r="H14" s="50">
-        <v>0.74584789158891396</v>
-      </c>
-      <c r="I14" s="50">
-        <v>0.16148397436026099</v>
-      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="53"/>
       <c r="K14" s="28"/>
     </row>
@@ -1546,32 +1384,20 @@
       <c r="B15" s="59">
         <v>2017</v>
       </c>
-      <c r="C15" s="60">
-        <v>272.391429093765</v>
-      </c>
-      <c r="D15" s="61">
-        <v>1.5264818826070501</v>
-      </c>
-      <c r="E15" s="61">
-        <v>0.36693776228993003</v>
-      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
       <c r="F15" s="62"/>
-      <c r="G15" s="63">
-        <v>296.54916000641299</v>
-      </c>
-      <c r="H15" s="61">
-        <v>1.03722506336635</v>
-      </c>
-      <c r="I15" s="61">
-        <v>0.122700264621731</v>
-      </c>
+      <c r="G15" s="63"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
       <c r="J15" s="64"/>
       <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="76"/>
       <c r="D16" s="76"/>
@@ -1586,7 +1412,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
@@ -1601,7 +1427,7 @@
     <row r="18" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
@@ -1615,7 +1441,7 @@
     </row>
     <row r="19" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="71"/>

--- a/source.xlsx
+++ b/source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyee\Documents\Projects\nsmtables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12069DB3-803E-464C-8411-DA8AB62AA6DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5254472C-977C-489B-8290-851A6D649C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="11760" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G4" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>National Center for Education Statistics (NCES)</t>
   </si>
@@ -68,9 +68,6 @@
     <t>† Not applicable</t>
   </si>
   <si>
-    <t>SOURCE: U.S. Department of Education, Institute of Education Sciences, National Center for Education Statistics, National Assessment of Educational Progress (NAEP), 2005, 2007, 2009, 2011, 2013, 2015 and 2017 Reading and Mathematics Assessments; and U.S. Department of Education, Institute of Education Sciences, National Center for Education Statistics, EDFacts School Year 2004–05, 2006–07, 2008–09, 2010–11, 2012–13, 2014–15, and 2016–17.</t>
-  </si>
-  <si>
     <t>NOTE: The NAEP scales in reading and mathematics range from 0 to 500. The numbers reported in this table are rounded. Relative error is a measure of how well the mapping procedure reproduces the percentages reported by the state as meeting the standard in each NAEP-participating school.</t>
   </si>
   <si>
@@ -78,6 +75,12 @@
   </si>
   <si>
     <t>Table 1b. Estimated NAEP equivalent scores for [STATE_NAME] grade 8 proficiency standards, by subject and year</t>
+  </si>
+  <si>
+    <t>SOURCE: U.S. Department of Education, Institute of Education Sciences, National Center for Education Statistics, National Assessment of Educational Progress (NAEP), 2007, 2009, 2011, 2013, 2015, 2017, and 2019 Reading and Mathematics Assessments; and U.S. Department of Education, Institute of Education Sciences, National Center for Education Statistics, EDFacts School Year 2006–07, 2008–09, 2010–11, 2012–13, 2014–15, 2016–17, and 2018–19.</t>
+  </si>
+  <si>
+    <t>! Relative error &gt; .5. Inferences based on these estimates may require additional evidence.</t>
   </si>
 </sst>
 </file>
@@ -802,10 +805,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B19" sqref="B19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -884,7 +887,7 @@
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -1079,23 +1082,23 @@
       <c r="J17" s="78"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
-      <c r="B18" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="B18" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
       <c r="B19" s="71" t="s">
         <v>12</v>
       </c>
@@ -1107,28 +1110,44 @@
       <c r="H19" s="71"/>
       <c r="I19" s="71"/>
       <c r="J19" s="71"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="11"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B18:J18"/>
+  <mergeCells count="9">
     <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
@@ -1138,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBB2959-0CC8-444B-99AE-C2090D86C47F}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:I15"/>
+      <selection activeCell="B19" sqref="B19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1239,7 @@
     <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -1424,22 +1443,23 @@
       <c r="J17" s="78"/>
       <c r="K17" s="29"/>
     </row>
-    <row r="18" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
-      <c r="B18" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
       <c r="B19" s="71" t="s">
         <v>12</v>
       </c>
@@ -1451,28 +1471,43 @@
       <c r="H19" s="71"/>
       <c r="I19" s="71"/>
       <c r="J19" s="71"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="19"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
     <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
